--- a/data/trans_orig/Q5410-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3E345E64-2179-4876-B17D-0F966692F111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9892D2E-EC4A-4E36-87D4-F067640BD380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{13A5CF23-E83F-4E7F-B294-E7EADF83FB84}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D040C2A2-770A-4FC6-8D5D-CEBEE30C7C45}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="126">
   <si>
     <t>Población según si se le escapa la caca (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -104,79 +104,79 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,84%</t>
+    <t>0,76%</t>
   </si>
   <si>
     <t>1,0%</t>
   </si>
   <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>2,07%</t>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,33%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,78%</t>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
+    <t>1,53%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>1,45%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
+    <t>1,34%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>97,02%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
+    <t>97,18%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
   </si>
   <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
-    <t>96,08%</t>
-  </si>
-  <si>
-    <t>98,04%</t>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>98,07%</t>
   </si>
   <si>
     <t>100%</t>
@@ -194,235 +194,229 @@
     <t>0,55%</t>
   </si>
   <si>
-    <t>2,58%</t>
+    <t>2,53%</t>
   </si>
   <si>
     <t>2,77%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
+    <t>1,62%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>1,4%</t>
-  </si>
-  <si>
-    <t>3,18%</t>
+    <t>1,38%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
-    <t>5,18%</t>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,22%</t>
   </si>
   <si>
     <t>2,74%</t>
   </si>
   <si>
+    <t>1,66%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,91%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,65%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,4%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>1,9%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,47%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>98,08%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
     <t>1,72%</t>
   </si>
   <si>
-    <t>4,15%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,03%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,6%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,45%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,25%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,32%</t>
-  </si>
-  <si>
-    <t>98,09%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>97,91%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>4,55%</t>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
   </si>
   <si>
     <t>95,04%</t>
   </si>
   <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>95,25%</t>
+  </si>
+  <si>
+    <t>96,98%</t>
   </si>
 </sst>
 </file>
@@ -834,7 +828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC5EE228-1677-4DAE-9F3D-B94AB37E83DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0711D26E-F993-425B-8190-96BE999D09C4}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2290,7 +2284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F44F8D7-37BF-4994-87FE-00B1F2AA7050}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59787AA-597F-4957-A08B-576168332FF6}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3375,10 +3369,10 @@
         <v>17386</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="G25" s="7" t="s">
         <v>59</v>
@@ -3581,10 +3575,10 @@
         <v>17386</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>53</v>
       </c>
       <c r="G29" s="7" t="s">
         <v>59</v>
@@ -3746,7 +3740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A58948CA-8E7C-453B-ABBA-6DF113077958}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7CAB8C-DFC8-4B7B-AADC-465662BC25A9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4864,10 +4858,10 @@
         <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4882,13 +4876,13 @@
         <v>573660</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>636</v>
@@ -4897,13 +4891,13 @@
         <v>754381</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>1243</v>
@@ -4912,13 +4906,13 @@
         <v>1328041</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5070,10 +5064,10 @@
         <v>91</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>93</v>
+        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5088,13 +5082,13 @@
         <v>573660</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H30" s="7">
         <v>636</v>
@@ -5103,13 +5097,13 @@
         <v>754381</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M30" s="7">
         <v>1243</v>
@@ -5118,13 +5112,13 @@
         <v>1328041</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,7 +5196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14785AF7-B8CD-4089-B7D8-9A097D76BE9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921CC235-3CB7-4DA6-BE83-F293B7FE17D9}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5219,7 +5213,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6236,13 +6230,13 @@
         <v>2902</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -6251,13 +6245,13 @@
         <v>14662</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -6266,13 +6260,13 @@
         <v>17564</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6287,13 +6281,13 @@
         <v>12998</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -6302,13 +6296,13 @@
         <v>36217</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -6317,13 +6311,13 @@
         <v>49215</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6338,13 +6332,13 @@
         <v>680328</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H26" s="7">
         <v>1622</v>
@@ -6353,13 +6347,13 @@
         <v>974785</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>2623</v>
@@ -6368,13 +6362,13 @@
         <v>1655114</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6442,13 +6436,13 @@
         <v>2902</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>105</v>
+        <v>19</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>106</v>
+        <v>76</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -6457,13 +6451,13 @@
         <v>14662</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>31</v>
+        <v>105</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -6472,13 +6466,13 @@
         <v>17564</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>25</v>
+        <v>107</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6493,13 +6487,13 @@
         <v>12998</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>63</v>
@@ -6508,13 +6502,13 @@
         <v>36217</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>115</v>
       </c>
       <c r="M29" s="7">
         <v>82</v>
@@ -6523,13 +6517,13 @@
         <v>49215</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>116</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6544,13 +6538,13 @@
         <v>680328</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>119</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H30" s="7">
         <v>1622</v>
@@ -6559,13 +6553,13 @@
         <v>974785</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M30" s="7">
         <v>2623</v>
@@ -6574,13 +6568,13 @@
         <v>1655114</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5410-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Edad-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D9892D2E-EC4A-4E36-87D4-F067640BD380}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{58E38781-AF6A-4667-A1E8-6BB35C471E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{D040C2A2-770A-4FC6-8D5D-CEBEE30C7C45}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{52AE14E9-9DA5-4961-A9A6-503E0BB33A93}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -104,7 +104,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>0,76%</t>
+    <t>0,84%</t>
   </si>
   <si>
     <t>1,0%</t>
@@ -113,304 +113,304 @@
     <t>0,35%</t>
   </si>
   <si>
-    <t>2,08%</t>
+    <t>2,13%</t>
   </si>
   <si>
     <t>0,64%</t>
   </si>
   <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>1,33%</t>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
   </si>
   <si>
     <t>2,61%</t>
   </si>
   <si>
-    <t>1,53%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
   </si>
   <si>
     <t>2,1%</t>
   </si>
   <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
   </si>
   <si>
     <t>98,42%</t>
   </si>
   <si>
-    <t>97,18%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>99,31%</t>
   </si>
   <si>
     <t>96,39%</t>
   </si>
   <si>
-    <t>94,57%</t>
-  </si>
-  <si>
-    <t>97,67%</t>
+    <t>94,59%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
   <si>
     <t>97,25%</t>
   </si>
   <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,74%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>4,3%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,21%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,36%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>1,95%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>1,81%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,92%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>2,69%</t>
+  </si>
+  <si>
+    <t>97,01%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>98,13%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,84%</t>
+  </si>
+  <si>
+    <t>97,81%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>1,87%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>3,53%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,73%</t>
+  </si>
+  <si>
+    <t>98,49%</t>
+  </si>
+  <si>
+    <t>95,04%</t>
+  </si>
+  <si>
+    <t>93,62%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
     <t>96,12%</t>
-  </si>
-  <si>
-    <t>98,07%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,62%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>2,13%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,74%</t>
-  </si>
-  <si>
-    <t>5,22%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>1,66%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,65%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,4%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2015 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,48%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,83%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>3,47%</t>
-  </si>
-  <si>
-    <t>1,81%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>97,01%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
   </si>
   <si>
     <t>95,25%</t>
@@ -828,7 +828,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0711D26E-F993-425B-8190-96BE999D09C4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F628376-4B12-42E3-91B2-A039C4A17059}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2284,7 +2284,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59787AA-597F-4957-A08B-576168332FF6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C615588-EB51-468C-9AAF-3079C35D2140}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3321,10 +3321,10 @@
         <v>49</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -3333,13 +3333,13 @@
         <v>20567</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -3348,13 +3348,13 @@
         <v>27738</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3369,13 @@
         <v>17386</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -3384,13 +3384,13 @@
         <v>20358</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -3399,13 +3399,13 @@
         <v>37744</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3420,13 @@
         <v>535079</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H26" s="7">
         <v>657</v>
@@ -3435,13 +3435,13 @@
         <v>702050</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M26" s="7">
         <v>1140</v>
@@ -3450,13 +3450,13 @@
         <v>1237129</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,10 +3527,10 @@
         <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>50</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>51</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -3539,13 +3539,13 @@
         <v>20567</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>53</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>54</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -3554,13 +3554,13 @@
         <v>27738</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>55</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,13 +3575,13 @@
         <v>17386</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>58</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>59</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -3590,13 +3590,13 @@
         <v>20358</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>60</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>61</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -3605,13 +3605,13 @@
         <v>37744</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3626,13 @@
         <v>535079</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="G30" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="F30" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>68</v>
       </c>
       <c r="H30" s="7">
         <v>657</v>
@@ -3641,13 +3641,13 @@
         <v>702050</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="K30" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="L30" s="7" t="s">
         <v>69</v>
-      </c>
-      <c r="K30" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>71</v>
       </c>
       <c r="M30" s="7">
         <v>1140</v>
@@ -3656,13 +3656,13 @@
         <v>1237129</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>72</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>73</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,7 +3740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF7CAB8C-DFC8-4B7B-AADC-465662BC25A9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A438DD-3D0E-4788-A30A-516DE39D93CE}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3757,7 +3757,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4774,13 +4774,13 @@
         <v>5468</v>
       </c>
       <c r="E24" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -4789,13 +4789,13 @@
         <v>9441</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -4804,13 +4804,13 @@
         <v>14909</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4825,13 @@
         <v>12200</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G25" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -4840,13 +4840,13 @@
         <v>14109</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -4855,13 +4855,13 @@
         <v>26309</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q25" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4897,7 +4897,7 @@
         <v>96</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="M26" s="7">
         <v>1243</v>
@@ -4906,13 +4906,13 @@
         <v>1328041</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,13 +4980,13 @@
         <v>5468</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="G28" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>78</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -4995,13 +4995,13 @@
         <v>9441</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K28" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="L28" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="K28" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="M28" s="7">
         <v>13</v>
@@ -5010,13 +5010,13 @@
         <v>14909</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,13 +5031,13 @@
         <v>12200</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="G29" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -5046,13 +5046,13 @@
         <v>14109</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L29" s="7" t="s">
         <v>88</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -5061,13 +5061,13 @@
         <v>26309</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="P29" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q29" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5103,7 +5103,7 @@
         <v>96</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>97</v>
+        <v>45</v>
       </c>
       <c r="M30" s="7">
         <v>1243</v>
@@ -5112,13 +5112,13 @@
         <v>1328041</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="P30" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="P30" s="7" t="s">
+      <c r="Q30" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,7 +5196,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921CC235-3CB7-4DA6-BE83-F293B7FE17D9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF2A673-46A2-44B2-AB49-063D592B59EC}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5213,7 +5213,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6230,13 +6230,13 @@
         <v>2902</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -6245,13 +6245,13 @@
         <v>14662</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -6260,13 +6260,13 @@
         <v>17564</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6281,13 @@
         <v>12998</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F25" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="G25" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -6296,13 +6296,13 @@
         <v>36217</v>
       </c>
       <c r="J25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K25" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="L25" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -6311,13 +6311,13 @@
         <v>49215</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6332,13 @@
         <v>680328</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H26" s="7">
         <v>1622</v>
@@ -6347,13 +6347,13 @@
         <v>974785</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M26" s="7">
         <v>2623</v>
@@ -6362,7 +6362,7 @@
         <v>1655114</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="P26" s="7" t="s">
         <v>124</v>
@@ -6436,13 +6436,13 @@
         <v>2902</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F28" s="7" t="s">
         <v>19</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -6451,13 +6451,13 @@
         <v>14662</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>105</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -6466,13 +6466,13 @@
         <v>17564</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="P28" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="P28" s="7" t="s">
+      <c r="Q28" s="7" t="s">
         <v>107</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,13 +6487,13 @@
         <v>12998</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="F29" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="G29" s="7" t="s">
         <v>110</v>
-      </c>
-      <c r="G29" s="7" t="s">
-        <v>111</v>
       </c>
       <c r="H29" s="7">
         <v>63</v>
@@ -6502,13 +6502,13 @@
         <v>36217</v>
       </c>
       <c r="J29" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="K29" s="7" t="s">
         <v>112</v>
       </c>
-      <c r="K29" s="7" t="s">
+      <c r="L29" s="7" t="s">
         <v>113</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>114</v>
       </c>
       <c r="M29" s="7">
         <v>82</v>
@@ -6517,13 +6517,13 @@
         <v>49215</v>
       </c>
       <c r="O29" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="P29" s="7" t="s">
         <v>115</v>
       </c>
-      <c r="P29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>116</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,13 +6538,13 @@
         <v>680328</v>
       </c>
       <c r="E30" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F30" s="7" t="s">
         <v>118</v>
       </c>
-      <c r="F30" s="7" t="s">
+      <c r="G30" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="G30" s="7" t="s">
-        <v>120</v>
       </c>
       <c r="H30" s="7">
         <v>1622</v>
@@ -6553,13 +6553,13 @@
         <v>974785</v>
       </c>
       <c r="J30" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K30" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="K30" s="7" t="s">
+      <c r="L30" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="L30" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="M30" s="7">
         <v>2623</v>
@@ -6568,7 +6568,7 @@
         <v>1655114</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>44</v>
+        <v>123</v>
       </c>
       <c r="P30" s="7" t="s">
         <v>124</v>

--- a/data/trans_orig/Q5410-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{58E38781-AF6A-4667-A1E8-6BB35C471E70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{323CC9B8-703C-4C7E-B536-1856B1D5FCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{52AE14E9-9DA5-4961-A9A6-503E0BB33A93}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2BF675DA-A332-4A9A-AA64-6F0AD9F70792}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="128">
   <si>
     <t>Población según si se le escapa la caca (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -110,202 +110,208 @@
     <t>1,0%</t>
   </si>
   <si>
-    <t>0,35%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>2,07%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>1,32%</t>
+  </si>
+  <si>
+    <t>1,41%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,78%</t>
+  </si>
+  <si>
+    <t>2,61%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>4,16%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,45%</t>
+  </si>
+  <si>
+    <t>3,2%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,02%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>97,25%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>98,04%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
   </si>
   <si>
     <t>2,13%</t>
   </si>
   <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>2,75%</t>
-  </si>
-  <si>
-    <t>2,61%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>4,25%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,37%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>98,42%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>99,31%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>94,59%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>97,25%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>98,11%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>2,77%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
+    <t>1,4%</t>
+  </si>
+  <si>
+    <t>3,18%</t>
   </si>
   <si>
     <t>3,11%</t>
   </si>
   <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>1,72%</t>
+  </si>
+  <si>
+    <t>4,15%</t>
+  </si>
+  <si>
+    <t>2,9%</t>
+  </si>
+  <si>
+    <t>2,03%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>95,61%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>97,19%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>93,6%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>Población según si se le escapa la caca (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,09%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
     <t>1,74%</t>
   </si>
   <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>95,61%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>97,19%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>92,36%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>Población según si se le escapa la caca (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>2,52%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>0,59%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
     <t>2,06%</t>
   </si>
   <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,25%</t>
   </si>
   <si>
     <t>1,81%</t>
   </si>
   <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
   </si>
   <si>
     <t>1,92%</t>
@@ -314,31 +320,34 @@
     <t>1,24%</t>
   </si>
   <si>
-    <t>2,69%</t>
+    <t>2,79%</t>
   </si>
   <si>
     <t>97,01%</t>
   </si>
   <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>98,13%</t>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>98,1%</t>
   </si>
   <si>
     <t>96,97%</t>
   </si>
   <si>
-    <t>95,19%</t>
+    <t>95,32%</t>
+  </si>
+  <si>
+    <t>98,09%</t>
   </si>
   <si>
     <t>96,99%</t>
   </si>
   <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>97,81%</t>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>97,91%</t>
   </si>
   <si>
     <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
@@ -347,76 +356,73 @@
     <t>0,42%</t>
   </si>
   <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
     <t>1,43%</t>
   </si>
   <si>
-    <t>0,77%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
+    <t>0,83%</t>
   </si>
   <si>
     <t>1,02%</t>
   </si>
   <si>
-    <t>0,61%</t>
-  </si>
-  <si>
-    <t>1,72%</t>
+    <t>1,69%</t>
   </si>
   <si>
     <t>1,87%</t>
   </si>
   <si>
-    <t>1,13%</t>
-  </si>
-  <si>
-    <t>2,81%</t>
+    <t>1,15%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
   </si>
   <si>
     <t>3,53%</t>
   </si>
   <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
+    <t>4,55%</t>
   </si>
   <si>
     <t>2,86%</t>
   </si>
   <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>3,57%</t>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>3,56%</t>
   </si>
   <si>
     <t>97,72%</t>
   </si>
   <si>
-    <t>96,73%</t>
-  </si>
-  <si>
-    <t>98,49%</t>
+    <t>96,61%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
   </si>
   <si>
     <t>95,04%</t>
   </si>
   <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
   </si>
   <si>
     <t>96,12%</t>
   </si>
   <si>
-    <t>95,25%</t>
-  </si>
-  <si>
-    <t>96,98%</t>
+    <t>95,18%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
   </si>
 </sst>
 </file>
@@ -828,7 +834,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F628376-4B12-42E3-91B2-A039C4A17059}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAA9627-17AB-4B07-9AF9-A1F17F2A2D8A}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2284,7 +2290,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3C615588-EB51-468C-9AAF-3079C35D2140}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC73DE1-ECAE-43EC-9587-0866F6C44E28}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3321,10 +3327,10 @@
         <v>49</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H24" s="7">
         <v>18</v>
@@ -3333,13 +3339,13 @@
         <v>20567</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M24" s="7">
         <v>25</v>
@@ -3348,13 +3354,13 @@
         <v>27738</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,13 +3375,13 @@
         <v>17386</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H25" s="7">
         <v>19</v>
@@ -3384,13 +3390,13 @@
         <v>20358</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M25" s="7">
         <v>33</v>
@@ -3399,13 +3405,13 @@
         <v>37744</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,13 +3426,13 @@
         <v>535079</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H26" s="7">
         <v>657</v>
@@ -3435,13 +3441,13 @@
         <v>702050</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M26" s="7">
         <v>1140</v>
@@ -3450,13 +3456,13 @@
         <v>1237129</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3527,10 +3533,10 @@
         <v>49</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>29</v>
+        <v>50</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="H28" s="7">
         <v>18</v>
@@ -3539,13 +3545,13 @@
         <v>20567</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="M28" s="7">
         <v>25</v>
@@ -3554,13 +3560,13 @@
         <v>27738</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>24</v>
+        <v>55</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,13 +3581,13 @@
         <v>17386</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H29" s="7">
         <v>19</v>
@@ -3590,13 +3596,13 @@
         <v>20358</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M29" s="7">
         <v>33</v>
@@ -3605,13 +3611,13 @@
         <v>37744</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,13 +3632,13 @@
         <v>535079</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H30" s="7">
         <v>657</v>
@@ -3641,13 +3647,13 @@
         <v>702050</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="M30" s="7">
         <v>1140</v>
@@ -3656,13 +3662,13 @@
         <v>1237129</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3740,7 +3746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A438DD-3D0E-4788-A30A-516DE39D93CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4D9EA8-8FAD-46C9-9C2C-CC7FF5AE018B}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3757,7 +3763,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4774,13 +4780,13 @@
         <v>5468</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -4789,13 +4795,13 @@
         <v>9441</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M24" s="7">
         <v>13</v>
@@ -4804,13 +4810,13 @@
         <v>14909</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,13 +4831,13 @@
         <v>12200</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H25" s="7">
         <v>12</v>
@@ -4840,13 +4846,13 @@
         <v>14109</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -4855,13 +4861,13 @@
         <v>26309</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,13 +4882,13 @@
         <v>573660</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H26" s="7">
         <v>636</v>
@@ -4891,13 +4897,13 @@
         <v>754381</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="M26" s="7">
         <v>1243</v>
@@ -4906,13 +4912,13 @@
         <v>1328041</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4980,13 +4986,13 @@
         <v>5468</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -4995,13 +5001,13 @@
         <v>9441</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="M28" s="7">
         <v>13</v>
@@ -5010,13 +5016,13 @@
         <v>14909</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,13 +5037,13 @@
         <v>12200</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="H29" s="7">
         <v>12</v>
@@ -5046,13 +5052,13 @@
         <v>14109</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="M29" s="7">
         <v>26</v>
@@ -5061,13 +5067,13 @@
         <v>26309</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,13 +5088,13 @@
         <v>573660</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H30" s="7">
         <v>636</v>
@@ -5097,13 +5103,13 @@
         <v>754381</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>45</v>
+        <v>99</v>
       </c>
       <c r="M30" s="7">
         <v>1243</v>
@@ -5112,13 +5118,13 @@
         <v>1328041</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,7 +5202,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BF2A673-46A2-44B2-AB49-063D592B59EC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856EF6F1-4897-4F94-BCBB-2E5C9F0E9E35}">
   <dimension ref="A1:Q32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5213,7 +5219,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6230,13 +6236,13 @@
         <v>2902</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="H24" s="7">
         <v>21</v>
@@ -6245,13 +6251,13 @@
         <v>14662</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="M24" s="7">
         <v>27</v>
@@ -6260,13 +6266,13 @@
         <v>17564</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,13 +6287,13 @@
         <v>12998</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H25" s="7">
         <v>63</v>
@@ -6296,13 +6302,13 @@
         <v>36217</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M25" s="7">
         <v>82</v>
@@ -6311,13 +6317,13 @@
         <v>49215</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,13 +6338,13 @@
         <v>680328</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H26" s="7">
         <v>1622</v>
@@ -6347,13 +6353,13 @@
         <v>974785</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>2623</v>
@@ -6362,13 +6368,13 @@
         <v>1655114</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6436,13 +6442,13 @@
         <v>2902</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>19</v>
+        <v>105</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>74</v>
+        <v>106</v>
       </c>
       <c r="H28" s="7">
         <v>21</v>
@@ -6451,13 +6457,13 @@
         <v>14662</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>104</v>
+        <v>31</v>
       </c>
       <c r="M28" s="7">
         <v>27</v>
@@ -6466,13 +6472,13 @@
         <v>17564</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>106</v>
+        <v>25</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,13 +6493,13 @@
         <v>12998</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="H29" s="7">
         <v>63</v>
@@ -6502,13 +6508,13 @@
         <v>36217</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="M29" s="7">
         <v>82</v>
@@ -6517,13 +6523,13 @@
         <v>49215</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,13 +6544,13 @@
         <v>680328</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="H30" s="7">
         <v>1622</v>
@@ -6553,13 +6559,13 @@
         <v>974785</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M30" s="7">
         <v>2623</v>
@@ -6568,13 +6574,13 @@
         <v>1655114</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/Q5410-Edad-trans_orig.xlsx
+++ b/data/trans_orig/Q5410-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{323CC9B8-703C-4C7E-B536-1856B1D5FCFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{772B1957-3F56-465A-99C6-58E83DB92B62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{2BF675DA-A332-4A9A-AA64-6F0AD9F70792}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{9B10C048-4381-468D-83C4-A4C01387442B}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1392" uniqueCount="292">
   <si>
     <t>Población según si se le escapa la caca (incontinencia) en 2007 (Tasa respuesta: 18,18%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>16/24</t>
+    <t>16-24</t>
   </si>
   <si>
     <t>A menudo</t>
@@ -83,30 +83,171 @@
     <t>No</t>
   </si>
   <si>
-    <t>25/34</t>
-  </si>
-  <si>
-    <t>35/44</t>
-  </si>
-  <si>
-    <t>45/54</t>
-  </si>
-  <si>
-    <t>55/64</t>
-  </si>
-  <si>
-    <t>65 y más</t>
+    <t>25-34</t>
+  </si>
+  <si>
+    <t>35-44</t>
+  </si>
+  <si>
+    <t>45-54</t>
+  </si>
+  <si>
+    <t>55-64</t>
+  </si>
+  <si>
+    <t>65-74</t>
+  </si>
+  <si>
+    <t>0,29%</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>2,81%</t>
+  </si>
+  <si>
+    <t>0,74%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>99,12%</t>
+  </si>
+  <si>
+    <t>97,63%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>98,87%</t>
+  </si>
+  <si>
+    <t>96,84%</t>
+  </si>
+  <si>
+    <t>99,69%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>99,56%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>75 o más</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,41%</t>
+  </si>
+  <si>
+    <t>2,56%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>5,62%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,44%</t>
+  </si>
+  <si>
+    <t>3,69%</t>
+  </si>
+  <si>
+    <t>2,25%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>97,44%</t>
+  </si>
+  <si>
+    <t>94,38%</t>
+  </si>
+  <si>
+    <t>93,84%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,23%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>0,17%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
     <t>1,0%</t>
   </si>
   <si>
@@ -119,18 +260,12 @@
     <t>0,64%</t>
   </si>
   <si>
-    <t>0,27%</t>
-  </si>
-  <si>
     <t>1,32%</t>
   </si>
   <si>
     <t>1,41%</t>
   </si>
   <si>
-    <t>0,7%</t>
-  </si>
-  <si>
     <t>2,78%</t>
   </si>
   <si>
@@ -179,15 +314,150 @@
     <t>98,04%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
   </si>
   <si>
     <t>Población según si se le escapa la caca (incontinencia) en 2012 (Tasa respuesta: 18,41%)</t>
   </si>
   <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>1,83%</t>
+  </si>
+  <si>
+    <t>0,67%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,26%</t>
+  </si>
+  <si>
+    <t>98,37%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>96,53%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>2,52%</t>
+  </si>
+  <si>
+    <t>7,19%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
+  </si>
+  <si>
+    <t>5,28%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>94,42%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>94,02%</t>
+  </si>
+  <si>
     <t>1,28%</t>
   </si>
   <si>
@@ -200,9 +470,6 @@
     <t>2,77%</t>
   </si>
   <si>
-    <t>1,75%</t>
-  </si>
-  <si>
     <t>4,2%</t>
   </si>
   <si>
@@ -269,6 +536,138 @@
     <t>Población según si se le escapa la caca (incontinencia) en 2016 (Tasa respuesta: 19,52%)</t>
   </si>
   <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>97,08%</t>
+  </si>
+  <si>
+    <t>99,7%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>0,99%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>4,44%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>96,77%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,11%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
+  </si>
+  <si>
     <t>0,92%</t>
   </si>
   <si>
@@ -278,9 +677,6 @@
     <t>2,0%</t>
   </si>
   <si>
-    <t>1,21%</t>
-  </si>
-  <si>
     <t>0,49%</t>
   </si>
   <si>
@@ -308,9 +704,6 @@
     <t>1,81%</t>
   </si>
   <si>
-    <t>0,94%</t>
-  </si>
-  <si>
     <t>2,93%</t>
   </si>
   <si>
@@ -353,76 +746,175 @@
     <t>Población según si se le escapa la caca (incontinencia) en 2023 (Tasa respuesta: 31,25%)</t>
   </si>
   <si>
-    <t>0,42%</t>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>98,31%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>99,8%</t>
+  </si>
+  <si>
+    <t>98,9%</t>
+  </si>
+  <si>
+    <t>98,28%</t>
+  </si>
+  <si>
+    <t>99,51%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>2,37%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>1,68%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>2,3%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>4,08%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,38%</t>
+  </si>
+  <si>
+    <t>97,06%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,38%</t>
+  </si>
+  <si>
+    <t>90,93%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>91,84%</t>
+  </si>
+  <si>
+    <t>94,59%</t>
   </si>
   <si>
     <t>0,15%</t>
   </si>
   <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>1,02%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>1,87%</t>
-  </si>
-  <si>
-    <t>1,15%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>3,56%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,5%</t>
-  </si>
-  <si>
-    <t>95,04%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>95,18%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>1,85%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>1,27%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>3,04%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>95,76%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
   </si>
 </sst>
 </file>
@@ -834,8 +1326,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EFAA9627-17AB-4B07-9AF9-A1F17F2A2D8A}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0D25EC3-59AD-4D07-B4AA-BC76FD21031D}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1877,34 +2369,34 @@
         <v>21</v>
       </c>
       <c r="H24" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I24" s="7">
-        <v>6754</v>
+        <v>897</v>
       </c>
       <c r="J24" s="7" t="s">
         <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="L24" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="L24" s="7" t="s">
+      <c r="M24" s="7">
+        <v>2</v>
+      </c>
+      <c r="N24" s="7">
+        <v>1735</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="M24" s="7">
-        <v>7</v>
-      </c>
-      <c r="N24" s="7">
-        <v>7592</v>
-      </c>
-      <c r="O24" s="7" t="s">
+      <c r="P24" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q24" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -1913,49 +2405,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>7104</v>
+        <v>1729</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2979</v>
+      </c>
+      <c r="J25" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="K25" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G25" s="7" t="s">
+      <c r="M25" s="7">
+        <v>5</v>
+      </c>
+      <c r="N25" s="7">
+        <v>4709</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H25" s="7">
-        <v>16</v>
-      </c>
-      <c r="I25" s="7">
-        <v>17685</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="K25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>32</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="M25" s="7">
-        <v>24</v>
-      </c>
-      <c r="N25" s="7">
-        <v>24788</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -1964,49 +2456,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>514</v>
+        <v>300</v>
       </c>
       <c r="D26" s="7">
-        <v>494524</v>
+        <v>290015</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="H26" s="7">
+        <v>367</v>
+      </c>
+      <c r="I26" s="7">
+        <v>339058</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>667</v>
+      </c>
+      <c r="N26" s="7">
+        <v>629073</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="H26" s="7">
-        <v>639</v>
-      </c>
-      <c r="I26" s="7">
-        <v>652403</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>41</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1153</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1146927</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2015,102 +2507,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>523</v>
+        <v>303</v>
       </c>
       <c r="D27" s="7">
-        <v>502466</v>
+        <v>292583</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>661</v>
+        <v>371</v>
       </c>
       <c r="I27" s="7">
-        <v>676842</v>
+        <v>342934</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>1184</v>
+        <v>674</v>
       </c>
       <c r="N27" s="7">
-        <v>1179308</v>
+        <v>635517</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D28" s="7">
-        <v>838</v>
+        <v>0</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>20</v>
+        <v>44</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="H28" s="7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I28" s="7">
-        <v>6754</v>
+        <v>5858</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>22</v>
+        <v>45</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>24</v>
+        <v>47</v>
       </c>
       <c r="M28" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="N28" s="7">
-        <v>7592</v>
+        <v>5858</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>27</v>
+        <v>50</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2119,49 +2611,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D29" s="7">
-        <v>7104</v>
+        <v>5374</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>28</v>
+        <v>51</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>30</v>
+        <v>53</v>
       </c>
       <c r="H29" s="7">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="I29" s="7">
-        <v>17685</v>
+        <v>14705</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="M29" s="7">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N29" s="7">
-        <v>24788</v>
+        <v>20079</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>35</v>
+        <v>58</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -2170,49 +2662,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>514</v>
+        <v>214</v>
       </c>
       <c r="D30" s="7">
-        <v>494524</v>
+        <v>204509</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>37</v>
+        <v>60</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>38</v>
+        <v>61</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="H30" s="7">
-        <v>639</v>
+        <v>272</v>
       </c>
       <c r="I30" s="7">
-        <v>652403</v>
+        <v>313345</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>40</v>
+        <v>62</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>41</v>
+        <v>63</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="M30" s="7">
-        <v>1153</v>
+        <v>486</v>
       </c>
       <c r="N30" s="7">
-        <v>1146927</v>
+        <v>517854</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>44</v>
+        <v>66</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2221,63 +2713,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>220</v>
+      </c>
+      <c r="D31" s="7">
+        <v>209883</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="7">
+        <v>290</v>
+      </c>
+      <c r="I31" s="7">
+        <v>333908</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="7">
+        <v>510</v>
+      </c>
+      <c r="N31" s="7">
+        <v>543791</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>1</v>
+      </c>
+      <c r="D32" s="7">
+        <v>838</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="H32" s="7">
+        <v>6</v>
+      </c>
+      <c r="I32" s="7">
+        <v>6754</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="M32" s="7">
+        <v>7</v>
+      </c>
+      <c r="N32" s="7">
+        <v>7592</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>8</v>
+      </c>
+      <c r="D33" s="7">
+        <v>7104</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="H33" s="7">
+        <v>16</v>
+      </c>
+      <c r="I33" s="7">
+        <v>17685</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="M33" s="7">
+        <v>24</v>
+      </c>
+      <c r="N33" s="7">
+        <v>24788</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>514</v>
+      </c>
+      <c r="D34" s="7">
+        <v>494524</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="7">
+        <v>639</v>
+      </c>
+      <c r="I34" s="7">
+        <v>652403</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>85</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1153</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1146927</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>523</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>502466</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="7">
         <v>661</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>676842</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M35" s="7">
         <v>1184</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1179308</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2290,8 +2989,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5FC73DE1-ECAE-43EC-9587-0866F6C44E28}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39905ADC-8B40-4D79-BF97-7E89A10CE4EA}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2307,7 +3006,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3318,49 +4017,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D24" s="7">
-        <v>7172</v>
+        <v>2952</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="H24" s="7">
-        <v>18</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>20567</v>
+        <v>2960</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>54</v>
+        <v>96</v>
       </c>
       <c r="M24" s="7">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="N24" s="7">
-        <v>27738</v>
+        <v>5912</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>55</v>
+        <v>97</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>56</v>
+        <v>94</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>57</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -3369,49 +4068,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>17386</v>
+        <v>2083</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="H25" s="7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="I25" s="7">
-        <v>20358</v>
+        <v>5981</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>61</v>
+        <v>101</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>62</v>
+        <v>102</v>
       </c>
       <c r="M25" s="7">
-        <v>33</v>
+        <v>8</v>
       </c>
       <c r="N25" s="7">
-        <v>37744</v>
+        <v>8063</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>63</v>
+        <v>103</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>64</v>
+        <v>104</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -3420,49 +4119,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>483</v>
+        <v>277</v>
       </c>
       <c r="D26" s="7">
-        <v>535079</v>
+        <v>304751</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>67</v>
+        <v>107</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>68</v>
+        <v>108</v>
       </c>
       <c r="H26" s="7">
-        <v>657</v>
+        <v>335</v>
       </c>
       <c r="I26" s="7">
-        <v>702050</v>
+        <v>345055</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>69</v>
+        <v>109</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>70</v>
+        <v>110</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="M26" s="7">
-        <v>1140</v>
+        <v>612</v>
       </c>
       <c r="N26" s="7">
-        <v>1237129</v>
+        <v>649806</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>72</v>
+        <v>111</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>73</v>
+        <v>112</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>74</v>
+        <v>113</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -3471,102 +4170,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>504</v>
+        <v>282</v>
       </c>
       <c r="D27" s="7">
-        <v>559637</v>
+        <v>309786</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>694</v>
+        <v>344</v>
       </c>
       <c r="I27" s="7">
-        <v>742975</v>
+        <v>353996</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>1198</v>
+        <v>626</v>
       </c>
       <c r="N27" s="7">
-        <v>1302612</v>
+        <v>663782</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>7172</v>
+        <v>4219</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>49</v>
+        <v>100</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>50</v>
+        <v>114</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>51</v>
+        <v>115</v>
       </c>
       <c r="H28" s="7">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="I28" s="7">
-        <v>20567</v>
+        <v>17607</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>52</v>
+        <v>116</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>53</v>
+        <v>117</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>54</v>
+        <v>118</v>
       </c>
       <c r="M28" s="7">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="N28" s="7">
-        <v>27738</v>
+        <v>21826</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>55</v>
+        <v>102</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>56</v>
+        <v>119</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>57</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -3575,49 +4274,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" s="7">
-        <v>17386</v>
+        <v>15303</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>58</v>
+        <v>121</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>53</v>
+        <v>122</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>59</v>
+        <v>123</v>
       </c>
       <c r="H29" s="7">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I29" s="7">
-        <v>20358</v>
+        <v>14378</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>60</v>
+        <v>124</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>61</v>
+        <v>125</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>62</v>
+        <v>126</v>
       </c>
       <c r="M29" s="7">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="N29" s="7">
-        <v>37744</v>
+        <v>29681</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>64</v>
+        <v>128</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>65</v>
+        <v>129</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -3626,49 +4325,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>483</v>
+        <v>206</v>
       </c>
       <c r="D30" s="7">
-        <v>535079</v>
+        <v>230328</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>68</v>
+        <v>132</v>
       </c>
       <c r="H30" s="7">
-        <v>657</v>
+        <v>322</v>
       </c>
       <c r="I30" s="7">
-        <v>702050</v>
+        <v>356995</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>69</v>
+        <v>133</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>70</v>
+        <v>134</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>71</v>
+        <v>135</v>
       </c>
       <c r="M30" s="7">
-        <v>1140</v>
+        <v>528</v>
       </c>
       <c r="N30" s="7">
-        <v>1237129</v>
+        <v>587323</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>72</v>
+        <v>136</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>73</v>
+        <v>137</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,63 +4376,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>222</v>
+      </c>
+      <c r="D31" s="7">
+        <v>249851</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="7">
+        <v>350</v>
+      </c>
+      <c r="I31" s="7">
+        <v>388979</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="7">
+        <v>572</v>
+      </c>
+      <c r="N31" s="7">
+        <v>638830</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>7</v>
+      </c>
+      <c r="D32" s="7">
+        <v>7172</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H32" s="7">
+        <v>18</v>
+      </c>
+      <c r="I32" s="7">
+        <v>20567</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="M32" s="7">
+        <v>25</v>
+      </c>
+      <c r="N32" s="7">
+        <v>27738</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7">
+        <v>17386</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="H33" s="7">
+        <v>19</v>
+      </c>
+      <c r="I33" s="7">
+        <v>20358</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M33" s="7">
+        <v>33</v>
+      </c>
+      <c r="N33" s="7">
+        <v>37744</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>483</v>
+      </c>
+      <c r="D34" s="7">
+        <v>535079</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="H34" s="7">
+        <v>657</v>
+      </c>
+      <c r="I34" s="7">
+        <v>702050</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1140</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1237129</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>504</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>559637</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="7">
         <v>694</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>742975</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M35" s="7">
         <v>1198</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1302612</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3746,8 +4652,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC4D9EA8-8FAD-46C9-9C2C-CC7FF5AE018B}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DE5C354-255E-4B1C-A5AE-3F481936D6D1}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3763,7 +4669,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>75</v>
+        <v>164</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4774,49 +5680,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>5468</v>
+        <v>1926</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>76</v>
+        <v>165</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>78</v>
+        <v>166</v>
       </c>
       <c r="H24" s="7">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="I24" s="7">
-        <v>9441</v>
+        <v>0</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>81</v>
+        <v>167</v>
       </c>
       <c r="M24" s="7">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="N24" s="7">
-        <v>14909</v>
+        <v>1926</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>83</v>
+        <v>20</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>84</v>
+        <v>168</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4825,49 +5731,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D25" s="7">
-        <v>12200</v>
+        <v>1979</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="H25" s="7">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="I25" s="7">
-        <v>14109</v>
+        <v>5189</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>88</v>
+        <v>170</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>89</v>
+        <v>171</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>90</v>
+        <v>172</v>
       </c>
       <c r="M25" s="7">
-        <v>26</v>
+        <v>7</v>
       </c>
       <c r="N25" s="7">
-        <v>26309</v>
+        <v>7169</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>173</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>92</v>
+        <v>49</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>93</v>
+        <v>174</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,49 +5782,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>607</v>
+        <v>321</v>
       </c>
       <c r="D26" s="7">
-        <v>573660</v>
+        <v>330425</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>94</v>
+        <v>175</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>95</v>
+        <v>176</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>96</v>
+        <v>177</v>
       </c>
       <c r="H26" s="7">
-        <v>636</v>
+        <v>349</v>
       </c>
       <c r="I26" s="7">
-        <v>754381</v>
+        <v>372573</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>97</v>
+        <v>178</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>99</v>
+        <v>180</v>
       </c>
       <c r="M26" s="7">
-        <v>1243</v>
+        <v>670</v>
       </c>
       <c r="N26" s="7">
-        <v>1328041</v>
+        <v>702997</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>100</v>
+        <v>181</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>101</v>
+        <v>182</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>102</v>
+        <v>183</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4927,72 +5833,72 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>627</v>
+        <v>325</v>
       </c>
       <c r="D27" s="7">
-        <v>591328</v>
+        <v>334330</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>655</v>
+        <v>354</v>
       </c>
       <c r="I27" s="7">
-        <v>777931</v>
+        <v>377762</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>1282</v>
+        <v>679</v>
       </c>
       <c r="N27" s="7">
-        <v>1369259</v>
+        <v>712092</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>5468</v>
+        <v>3542</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>76</v>
+        <v>184</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>77</v>
+        <v>185</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>78</v>
+        <v>186</v>
       </c>
       <c r="H28" s="7">
         <v>7</v>
@@ -5001,28 +5907,28 @@
         <v>9441</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>79</v>
+        <v>187</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>80</v>
+        <v>188</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>81</v>
+        <v>189</v>
       </c>
       <c r="M28" s="7">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="N28" s="7">
-        <v>14909</v>
+        <v>12983</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>82</v>
+        <v>174</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>83</v>
+        <v>190</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>84</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -5031,49 +5937,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D29" s="7">
-        <v>12200</v>
+        <v>10221</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>85</v>
+        <v>192</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>86</v>
+        <v>193</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>87</v>
+        <v>194</v>
       </c>
       <c r="H29" s="7">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="I29" s="7">
-        <v>14109</v>
+        <v>8920</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>88</v>
+        <v>195</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>89</v>
+        <v>196</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>90</v>
+        <v>197</v>
       </c>
       <c r="M29" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="N29" s="7">
-        <v>26309</v>
+        <v>19141</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>91</v>
+        <v>198</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>93</v>
+        <v>199</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,49 +5988,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>607</v>
+        <v>286</v>
       </c>
       <c r="D30" s="7">
-        <v>573660</v>
+        <v>243235</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>94</v>
+        <v>200</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>95</v>
+        <v>201</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>96</v>
+        <v>202</v>
       </c>
       <c r="H30" s="7">
-        <v>636</v>
+        <v>287</v>
       </c>
       <c r="I30" s="7">
-        <v>754381</v>
+        <v>381808</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>97</v>
+        <v>203</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>98</v>
+        <v>204</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="M30" s="7">
-        <v>1243</v>
+        <v>573</v>
       </c>
       <c r="N30" s="7">
-        <v>1328041</v>
+        <v>625043</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>101</v>
+        <v>207</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>102</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -5133,63 +6039,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>302</v>
+      </c>
+      <c r="D31" s="7">
+        <v>256998</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="7">
+        <v>301</v>
+      </c>
+      <c r="I31" s="7">
+        <v>400169</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="7">
+        <v>603</v>
+      </c>
+      <c r="N31" s="7">
+        <v>657167</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>5468</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>211</v>
+      </c>
+      <c r="H32" s="7">
+        <v>7</v>
+      </c>
+      <c r="I32" s="7">
+        <v>9441</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="M32" s="7">
+        <v>13</v>
+      </c>
+      <c r="N32" s="7">
+        <v>14909</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>214</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>14</v>
+      </c>
+      <c r="D33" s="7">
+        <v>12200</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="H33" s="7">
+        <v>12</v>
+      </c>
+      <c r="I33" s="7">
+        <v>14109</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="M33" s="7">
+        <v>26</v>
+      </c>
+      <c r="N33" s="7">
+        <v>26309</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>607</v>
+      </c>
+      <c r="D34" s="7">
+        <v>573660</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="H34" s="7">
+        <v>636</v>
+      </c>
+      <c r="I34" s="7">
+        <v>754381</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="M34" s="7">
+        <v>1243</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1328041</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>627</v>
       </c>
-      <c r="D31" s="7">
+      <c r="D35" s="7">
         <v>591328</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="E35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="7">
         <v>655</v>
       </c>
-      <c r="I31" s="7">
+      <c r="I35" s="7">
         <v>777931</v>
       </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="J35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M35" s="7">
         <v>1282</v>
       </c>
-      <c r="N31" s="7">
+      <c r="N35" s="7">
         <v>1369259</v>
       </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="O35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5202,8 +6315,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{856EF6F1-4897-4F94-BCBB-2E5C9F0E9E35}">
-  <dimension ref="A1:Q32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC96B4A2-3AE4-432C-9C5F-A9B063741FCA}">
+  <dimension ref="A1:Q36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5219,7 +6332,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>103</v>
+        <v>234</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -6230,49 +7343,49 @@
         <v>10</v>
       </c>
       <c r="C24" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D24" s="7">
-        <v>2902</v>
+        <v>945</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>105</v>
+        <v>20</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>106</v>
+        <v>235</v>
       </c>
       <c r="H24" s="7">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="I24" s="7">
-        <v>14662</v>
+        <v>1573</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>107</v>
+        <v>22</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>108</v>
+        <v>20</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>31</v>
+        <v>236</v>
       </c>
       <c r="M24" s="7">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="N24" s="7">
-        <v>17564</v>
+        <v>2518</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>109</v>
+        <v>22</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>25</v>
+        <v>237</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6281,49 +7394,49 @@
         <v>12</v>
       </c>
       <c r="C25" s="7">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D25" s="7">
-        <v>12998</v>
+        <v>5262</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>239</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>76</v>
       </c>
       <c r="H25" s="7">
-        <v>63</v>
+        <v>7</v>
       </c>
       <c r="I25" s="7">
-        <v>36217</v>
+        <v>2958</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>81</v>
+        <v>240</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>115</v>
+        <v>241</v>
       </c>
       <c r="M25" s="7">
-        <v>82</v>
+        <v>15</v>
       </c>
       <c r="N25" s="7">
-        <v>49215</v>
+        <v>8220</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>116</v>
+        <v>25</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>117</v>
+        <v>242</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6332,49 +7445,49 @@
         <v>13</v>
       </c>
       <c r="C26" s="7">
-        <v>1001</v>
+        <v>560</v>
       </c>
       <c r="D26" s="7">
-        <v>680328</v>
+        <v>361958</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>119</v>
+        <v>243</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>120</v>
+        <v>231</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="H26" s="7">
-        <v>1622</v>
+        <v>816</v>
       </c>
       <c r="I26" s="7">
-        <v>974785</v>
+        <v>603427</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>122</v>
+        <v>244</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>123</v>
+        <v>245</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>124</v>
+        <v>246</v>
       </c>
       <c r="M26" s="7">
-        <v>2623</v>
+        <v>1376</v>
       </c>
       <c r="N26" s="7">
-        <v>1655114</v>
+        <v>965386</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>125</v>
+        <v>247</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>126</v>
+        <v>248</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -6383,102 +7496,102 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>1026</v>
+        <v>570</v>
       </c>
       <c r="D27" s="7">
-        <v>696228</v>
+        <v>368165</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="H27" s="7">
-        <v>1706</v>
+        <v>826</v>
       </c>
       <c r="I27" s="7">
-        <v>1025664</v>
+        <v>607958</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="M27" s="7">
-        <v>2732</v>
+        <v>1396</v>
       </c>
       <c r="N27" s="7">
-        <v>1721892</v>
+        <v>976124</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D28" s="7">
-        <v>2902</v>
+        <v>1790</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>104</v>
+        <v>72</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>105</v>
+        <v>68</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>106</v>
+        <v>250</v>
       </c>
       <c r="H28" s="7">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="I28" s="7">
-        <v>14662</v>
+        <v>10085</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>107</v>
+        <v>251</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>108</v>
+        <v>145</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>31</v>
+        <v>252</v>
       </c>
       <c r="M28" s="7">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N28" s="7">
-        <v>17564</v>
+        <v>11875</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>109</v>
+        <v>253</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>25</v>
+        <v>254</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -6487,49 +7600,49 @@
         <v>12</v>
       </c>
       <c r="C29" s="7">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="D29" s="7">
-        <v>12998</v>
+        <v>6485</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>111</v>
+        <v>255</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>112</v>
+        <v>256</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>113</v>
+        <v>257</v>
       </c>
       <c r="H29" s="7">
-        <v>63</v>
+        <v>56</v>
       </c>
       <c r="I29" s="7">
-        <v>36217</v>
+        <v>28480</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>114</v>
+        <v>258</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>81</v>
+        <v>259</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>115</v>
+        <v>260</v>
       </c>
       <c r="M29" s="7">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="N29" s="7">
-        <v>49215</v>
+        <v>34966</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>116</v>
+        <v>261</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>117</v>
+        <v>262</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>118</v>
+        <v>263</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
@@ -6538,49 +7651,49 @@
         <v>13</v>
       </c>
       <c r="C30" s="7">
-        <v>1001</v>
+        <v>441</v>
       </c>
       <c r="D30" s="7">
-        <v>680328</v>
+        <v>273133</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>119</v>
+        <v>264</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>120</v>
+        <v>265</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>121</v>
+        <v>266</v>
       </c>
       <c r="H30" s="7">
-        <v>1622</v>
+        <v>806</v>
       </c>
       <c r="I30" s="7">
-        <v>974785</v>
+        <v>386769</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>122</v>
+        <v>267</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>123</v>
+        <v>268</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>124</v>
+        <v>269</v>
       </c>
       <c r="M30" s="7">
-        <v>2623</v>
+        <v>1247</v>
       </c>
       <c r="N30" s="7">
-        <v>1655114</v>
+        <v>659901</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>125</v>
+        <v>270</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>126</v>
+        <v>271</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>127</v>
+        <v>272</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -6589,63 +7702,270 @@
         <v>3</v>
       </c>
       <c r="C31" s="7">
+        <v>456</v>
+      </c>
+      <c r="D31" s="7">
+        <v>281408</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H31" s="7">
+        <v>880</v>
+      </c>
+      <c r="I31" s="7">
+        <v>425334</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M31" s="7">
+        <v>1336</v>
+      </c>
+      <c r="N31" s="7">
+        <v>706742</v>
+      </c>
+      <c r="O31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q31" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C32" s="7">
+        <v>6</v>
+      </c>
+      <c r="D32" s="7">
+        <v>2735</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="H32" s="7">
+        <v>21</v>
+      </c>
+      <c r="I32" s="7">
+        <v>11658</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>275</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="L32" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="M32" s="7">
+        <v>27</v>
+      </c>
+      <c r="N32" s="7">
+        <v>14393</v>
+      </c>
+      <c r="O32" s="7" t="s">
+        <v>274</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="Q32" s="7" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A33" s="1"/>
+      <c r="B33" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C33" s="7">
+        <v>19</v>
+      </c>
+      <c r="D33" s="7">
+        <v>11748</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>279</v>
+      </c>
+      <c r="H33" s="7">
+        <v>63</v>
+      </c>
+      <c r="I33" s="7">
+        <v>31438</v>
+      </c>
+      <c r="J33" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="K33" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="L33" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="M33" s="7">
+        <v>82</v>
+      </c>
+      <c r="N33" s="7">
+        <v>43186</v>
+      </c>
+      <c r="O33" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="P33" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q33" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A34" s="1"/>
+      <c r="B34" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="7">
+        <v>1001</v>
+      </c>
+      <c r="D34" s="7">
+        <v>635090</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>283</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>284</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="H34" s="7">
+        <v>1622</v>
+      </c>
+      <c r="I34" s="7">
+        <v>990196</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="K34" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="L34" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="M34" s="7">
+        <v>2623</v>
+      </c>
+      <c r="N34" s="7">
+        <v>1625287</v>
+      </c>
+      <c r="O34" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="Q34" s="7" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A35" s="1"/>
+      <c r="B35" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C35" s="7">
         <v>1026</v>
       </c>
-      <c r="D31" s="7">
-        <v>696228</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H31" s="7">
+      <c r="D35" s="7">
+        <v>649573</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H35" s="7">
         <v>1706</v>
       </c>
-      <c r="I31" s="7">
-        <v>1025664</v>
-      </c>
-      <c r="J31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="M31" s="7">
+      <c r="I35" s="7">
+        <v>1033292</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M35" s="7">
         <v>2732</v>
       </c>
-      <c r="N31" s="7">
-        <v>1721892</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>47</v>
+      <c r="N35" s="7">
+        <v>1682866</v>
+      </c>
+      <c r="O35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="P35" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q35" s="7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="12">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
     <mergeCell ref="A24:A27"/>
     <mergeCell ref="A28:A31"/>
+    <mergeCell ref="A32:A35"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
